--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Documents\GitHub\animeRecommendationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E874B7E7-557D-4920-8F67-8CA22C8241B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29156B42-FF61-4564-8A63-1104416DDF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
     <sheet name="Data Collection" sheetId="1" r:id="rId2"/>
     <sheet name="Content-Based Filtering" sheetId="2" r:id="rId3"/>
     <sheet name="Collaborative Filtering" sheetId="3" r:id="rId4"/>
-    <sheet name="Web Interface" sheetId="5" r:id="rId5"/>
+    <sheet name="New Users Evaluation" sheetId="6" r:id="rId5"/>
+    <sheet name="Web Interface" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>Date Finished</t>
   </si>
@@ -136,13 +137,16 @@
   </si>
   <si>
     <t>Improve the vectorisation of the anime</t>
+  </si>
+  <si>
+    <t>Evaluate the systems for new users</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +162,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,18 +216,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564A22F4-1C3D-4A06-A6DE-506EEA3469F5}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +576,7 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="2">
@@ -538,7 +587,7 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -546,7 +595,7 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -554,15 +603,23 @@
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -576,7 +633,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,10 +661,10 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2">
@@ -618,10 +675,10 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2">
@@ -632,10 +689,10 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2">
@@ -646,10 +703,10 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2">
@@ -660,10 +717,10 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2">
@@ -681,7 +738,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,10 +765,10 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2">
@@ -722,10 +779,10 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2">
@@ -736,10 +793,10 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2">
@@ -750,10 +807,10 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2">
@@ -764,32 +821,38 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45304</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45304</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -803,7 +866,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B61A5E7-19A9-4FD2-833D-41A2C1AAEB17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8604CB-AB2D-4350-BE93-5DBC8A579841}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -860,4 +923,36 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B61A5E7-19A9-4FD2-833D-41A2C1AAEB17}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Documents\GitHub\animeRecommendationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29156B42-FF61-4564-8A63-1104416DDF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E5751C-E21A-4F4D-B9B7-6B2ADDADA1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>Date Finished</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Support RMSE for evaluating the CBF recommender</t>
   </si>
   <si>
-    <t>Add a custom evaluation metric that uses minimum distance</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -132,14 +129,32 @@
     <t>Very Low</t>
   </si>
   <si>
+    <t>Evaluate the systems for new users</t>
+  </si>
+  <si>
+    <t>Change evaluation metric to work per user (i.e. for the predictions made for that user)</t>
+  </si>
+  <si>
+    <t>Create an initial custom evaluation metric that uses minimum distance</t>
+  </si>
+  <si>
     <t>Create graphs using the
-evaluation metric(s)</t>
-  </si>
-  <si>
-    <t>Improve the vectorisation of the anime</t>
-  </si>
-  <si>
-    <t>Evaluate the systems for new users</t>
+evaluation metric</t>
+  </si>
+  <si>
+    <t>Create graphs for evaluating the system when making 10, 20, and 30 recommendations</t>
+  </si>
+  <si>
+    <t>Add the ability to make mass recommendations without evaluating</t>
+  </si>
+  <si>
+    <t>Update the test recommendations function to work with the new evaluation method</t>
+  </si>
+  <si>
+    <t>Improve the vectorisation of  anime</t>
+  </si>
+  <si>
+    <t>Add other distance metrics to compare with</t>
   </si>
 </sst>
 </file>
@@ -563,21 +578,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>45222</v>
@@ -585,7 +600,7 @@
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -593,7 +608,7 @@
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -601,26 +616,26 @@
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +660,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -735,21 +750,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A34CCC9-24A7-4EB0-B684-B237532D90B3}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -819,7 +834,7 @@
     </row>
     <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -833,7 +848,7 @@
     </row>
     <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -845,15 +860,81 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +957,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -908,7 +989,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -940,7 +1021,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>

--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Documents\GitHub\animeRecommendationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E5751C-E21A-4F4D-B9B7-6B2ADDADA1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4362FB-CBF3-461B-B134-B1A947BDB481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>Date Finished</t>
   </si>
@@ -155,13 +155,44 @@
   </si>
   <si>
     <t>Add other distance metrics to compare with</t>
+  </si>
+  <si>
+    <t>Completed?</t>
+  </si>
+  <si>
+    <t>Completion Date</t>
+  </si>
+  <si>
+    <t>Setup the dataset to work 
+with Scikit Surprise</t>
+  </si>
+  <si>
+    <t>Create the SVD++ model and fit it with the dataset</t>
+  </si>
+  <si>
+    <t>Make predictions using the model</t>
+  </si>
+  <si>
+    <t>Get the predictions to work with my minimum distance evaluation</t>
+  </si>
+  <si>
+    <t>Create a graph that looks like the CBF evaluation graph</t>
+  </si>
+  <si>
+    <t>Normalise the user ratings per user</t>
+  </si>
+  <si>
+    <t>Remove shows that have not been finished, or have been dropped.</t>
+  </si>
+  <si>
+    <t>Support cross validation for the CBF model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +224,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -237,16 +304,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -254,7 +327,337 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -265,6 +668,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B176215D-3E25-465E-8734-F770A2BFE3F2}" name="Table3" displayName="Table3" ref="A1:C7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="5">
+  <autoFilter ref="A1:C7" xr:uid="{B176215D-3E25-465E-8734-F770A2BFE3F2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DFDAABA4-5AB9-48CB-AD77-74292D9825B2}" name="Overall Task" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C07F7294-7A13-4F13-AAC7-AC98E74B30A3}" name="Priority" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{FD6E8A6E-BBFA-480B-A476-D504B27D722A}" name="Data Finished" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{32B3F3BC-3213-4C32-AA1A-ED29D5C27049}" name="Table4" displayName="Table4" ref="A1:D6" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D6" xr:uid="{32B3F3BC-3213-4C32-AA1A-ED29D5C27049}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8C6A5278-DB72-42E0-A0F9-AA634A2D59A4}" name="Sub-Task" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{6EB5F5B7-4985-43EC-A269-119ED4ED1161}" name="Priority" dataDxfId="3" dataCellStyle="Bad"/>
+    <tableColumn id="3" xr3:uid="{1ED58AB5-59A7-47BE-B508-A9EC0B64F4AD}" name="Finished?" dataDxfId="2" dataCellStyle="Good"/>
+    <tableColumn id="4" xr3:uid="{0EEA310E-C110-453D-BE5A-690D8D2AF76D}" name="Date Finished" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0" headerRowDxfId="20" dataDxfId="15">
+  <autoFilter ref="A1:D14" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+    <sortCondition descending="1" ref="D1:D13"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DB039294-D058-4731-B655-F5AC2D298968}" name="Sub-Task" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{70DD6EBE-8696-483F-9161-21B8F4F67AED}" name="Priority" dataDxfId="18" dataCellStyle="Neutral"/>
+    <tableColumn id="3" xr3:uid="{EF59A110-B41A-4B19-8713-54C02158BE15}" name="Completed?" dataDxfId="17" dataCellStyle="Good"/>
+    <tableColumn id="4" xr3:uid="{0BDA4045-6557-4C5D-89AC-BE67E3FD7FA3}" name="Completion Date" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}" name="Table2" displayName="Table2" ref="A1:D8" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:D8" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4474FE88-BF57-400E-B557-D9F7792BD945}" name="Sub-Task" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{90D4ABA7-9778-4978-8446-83BD66FD4CC5}" name="Priority" dataDxfId="12" dataCellStyle="Bad"/>
+    <tableColumn id="3" xr3:uid="{FA391E9E-6976-444D-9478-02E2D7D60B53}" name="Finished?" dataDxfId="11" dataCellStyle="Bad"/>
+    <tableColumn id="4" xr3:uid="{232FD672-1458-4341-94CD-2FC92FFB01F5}" name="Date Finished" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,80 +1023,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564A22F4-1C3D-4A06-A6DE-506EEA3469F5}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>45222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="C7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -648,306 +1114,454 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="9">
         <v>45199</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="9">
         <v>45199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="9">
         <v>45199</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <v>45199</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <v>45222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A34CCC9-24A7-4EB0-B684-B237532D90B3}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D9" s="9">
         <v>45243</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="10" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D10" s="9">
         <v>45243</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="D14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB981B5-0229-4450-9452-8FF3F7ACB3A8}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>45344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8604CB-AB2D-4350-BE93-5DBC8A579841}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,48 +1570,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8604CB-AB2D-4350-BE93-5DBC8A579841}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1020,16 +1602,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Documents\GitHub\animeRecommendationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4362FB-CBF3-461B-B134-B1A947BDB481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6E522A-7F35-4DF4-B411-D15E1F5E3245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
   <si>
     <t>Date Finished</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Support cross validation for the CBF model</t>
+  </si>
+  <si>
+    <t>Compare different algorithms e.g. KNNWithMeans, KNNWithZScore etc.</t>
+  </si>
+  <si>
+    <t>Perform a GridSearch to hypertune the algorithm parameters</t>
   </si>
 </sst>
 </file>
@@ -304,7 +310,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -319,7 +325,6 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -330,6 +335,69 @@
   <dxfs count="21">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -348,6 +416,91 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -422,59 +575,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -493,17 +593,12 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -534,110 +629,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -671,54 +676,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B176215D-3E25-465E-8734-F770A2BFE3F2}" name="Table3" displayName="Table3" ref="A1:C7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B176215D-3E25-465E-8734-F770A2BFE3F2}" name="Table3" displayName="Table3" ref="A1:C7" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:C7" xr:uid="{B176215D-3E25-465E-8734-F770A2BFE3F2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DFDAABA4-5AB9-48CB-AD77-74292D9825B2}" name="Overall Task" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C07F7294-7A13-4F13-AAC7-AC98E74B30A3}" name="Priority" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{FD6E8A6E-BBFA-480B-A476-D504B27D722A}" name="Data Finished" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{DFDAABA4-5AB9-48CB-AD77-74292D9825B2}" name="Overall Task" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{C07F7294-7A13-4F13-AAC7-AC98E74B30A3}" name="Priority" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{FD6E8A6E-BBFA-480B-A476-D504B27D722A}" name="Data Finished" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{32B3F3BC-3213-4C32-AA1A-ED29D5C27049}" name="Table4" displayName="Table4" ref="A1:D6" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{32B3F3BC-3213-4C32-AA1A-ED29D5C27049}" name="Table4" displayName="Table4" ref="A1:D6" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:D6" xr:uid="{32B3F3BC-3213-4C32-AA1A-ED29D5C27049}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8C6A5278-DB72-42E0-A0F9-AA634A2D59A4}" name="Sub-Task" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{6EB5F5B7-4985-43EC-A269-119ED4ED1161}" name="Priority" dataDxfId="3" dataCellStyle="Bad"/>
-    <tableColumn id="3" xr3:uid="{1ED58AB5-59A7-47BE-B508-A9EC0B64F4AD}" name="Finished?" dataDxfId="2" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{0EEA310E-C110-453D-BE5A-690D8D2AF76D}" name="Date Finished" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8C6A5278-DB72-42E0-A0F9-AA634A2D59A4}" name="Sub-Task" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{6EB5F5B7-4985-43EC-A269-119ED4ED1161}" name="Priority" dataDxfId="13" dataCellStyle="Bad"/>
+    <tableColumn id="3" xr3:uid="{1ED58AB5-59A7-47BE-B508-A9EC0B64F4AD}" name="Finished?" dataDxfId="12" dataCellStyle="Good"/>
+    <tableColumn id="4" xr3:uid="{0EEA310E-C110-453D-BE5A-690D8D2AF76D}" name="Date Finished" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0" headerRowDxfId="20" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:D14" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
     <sortCondition descending="1" ref="D1:D13"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DB039294-D058-4731-B655-F5AC2D298968}" name="Sub-Task" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{70DD6EBE-8696-483F-9161-21B8F4F67AED}" name="Priority" dataDxfId="18" dataCellStyle="Neutral"/>
-    <tableColumn id="3" xr3:uid="{EF59A110-B41A-4B19-8713-54C02158BE15}" name="Completed?" dataDxfId="17" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{0BDA4045-6557-4C5D-89AC-BE67E3FD7FA3}" name="Completion Date" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{DB039294-D058-4731-B655-F5AC2D298968}" name="Sub-Task" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{70DD6EBE-8696-483F-9161-21B8F4F67AED}" name="Priority" dataDxfId="7" dataCellStyle="Neutral"/>
+    <tableColumn id="3" xr3:uid="{EF59A110-B41A-4B19-8713-54C02158BE15}" name="Completed?" dataDxfId="6" dataCellStyle="Good"/>
+    <tableColumn id="4" xr3:uid="{0BDA4045-6557-4C5D-89AC-BE67E3FD7FA3}" name="Completion Date" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}" name="Table2" displayName="Table2" ref="A1:D8" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A1:D8" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}" name="Table2" displayName="Table2" ref="A1:D10" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D10" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4474FE88-BF57-400E-B557-D9F7792BD945}" name="Sub-Task" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{90D4ABA7-9778-4978-8446-83BD66FD4CC5}" name="Priority" dataDxfId="12" dataCellStyle="Bad"/>
-    <tableColumn id="3" xr3:uid="{FA391E9E-6976-444D-9478-02E2D7D60B53}" name="Finished?" dataDxfId="11" dataCellStyle="Bad"/>
-    <tableColumn id="4" xr3:uid="{232FD672-1458-4341-94CD-2FC92FFB01F5}" name="Date Finished" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{4474FE88-BF57-400E-B557-D9F7792BD945}" name="Sub-Task" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{90D4ABA7-9778-4978-8446-83BD66FD4CC5}" name="Priority" dataDxfId="2" dataCellStyle="Bad"/>
+    <tableColumn id="3" xr3:uid="{FA391E9E-6976-444D-9478-02E2D7D60B53}" name="Finished?" dataDxfId="1" dataCellStyle="Bad"/>
+    <tableColumn id="4" xr3:uid="{232FD672-1458-4341-94CD-2FC92FFB01F5}" name="Date Finished" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1023,18 +1028,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564A22F4-1C3D-4A06-A6DE-506EEA3469F5}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1045,7 +1050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -1056,7 +1061,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -1065,7 +1070,7 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1074,7 +1079,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1083,7 +1088,7 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1092,7 +1097,7 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1117,15 +1122,15 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -1139,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1167,7 +1172,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1181,7 +1186,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +1200,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1226,15 +1231,15 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -1262,7 +1267,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1276,7 +1281,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1290,7 +1295,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1304,7 +1309,7 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1318,7 +1323,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1332,7 +1337,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1346,7 +1351,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1360,7 +1365,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1374,7 +1379,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1386,7 +1391,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -1398,7 +1403,7 @@
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
@@ -1410,7 +1415,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
@@ -1432,21 +1437,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB981B5-0229-4450-9452-8FF3F7ACB3A8}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -1460,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1474,7 +1479,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
@@ -1488,7 +1493,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>44</v>
       </c>
@@ -1500,7 +1505,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
@@ -1512,41 +1517,69 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1564,12 +1597,12 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1596,12 +1629,12 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>

--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Documents\GitHub\animeRecommendationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6E522A-7F35-4DF4-B411-D15E1F5E3245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A8436F-DABD-4B62-8645-FC45AA7707AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
   <si>
     <t>Date Finished</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Perform a GridSearch to hypertune the algorithm parameters</t>
+  </si>
+  <si>
+    <t>Make the recommend user function predict the rating for its neighbour's items</t>
   </si>
 </sst>
 </file>
@@ -717,8 +720,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}" name="Table2" displayName="Table2" ref="A1:D10" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D10" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D11" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4474FE88-BF57-400E-B557-D9F7792BD945}" name="Sub-Task" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{90D4ABA7-9778-4978-8446-83BD66FD4CC5}" name="Priority" dataDxfId="2" dataCellStyle="Bad"/>
@@ -1437,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB981B5-0229-4450-9452-8FF3F7ACB3A8}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,41 +1548,53 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Documents\GitHub\animeRecommendationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A8436F-DABD-4B62-8645-FC45AA7707AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C480D75-0620-4994-B768-AD2CB17F594A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
     <sheet name="Data Collection" sheetId="1" r:id="rId2"/>
     <sheet name="Content-Based Filtering" sheetId="2" r:id="rId3"/>
     <sheet name="Collaborative Filtering" sheetId="3" r:id="rId4"/>
-    <sheet name="New Users Evaluation" sheetId="6" r:id="rId5"/>
+    <sheet name="Multiple Datasets Evaluation" sheetId="6" r:id="rId5"/>
     <sheet name="Web Interface" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
   <si>
     <t>Date Finished</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Switch the CBF recommender to support multiple distance metrics e.g. cosine distance, euclidean distance</t>
   </si>
   <si>
-    <t>Support RMSE for evaluating the CBF recommender</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Very Low</t>
   </si>
   <si>
-    <t>Evaluate the systems for new users</t>
-  </si>
-  <si>
     <t>Change evaluation metric to work per user (i.e. for the predictions made for that user)</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>Improve the vectorisation of  anime</t>
   </si>
   <si>
-    <t>Add other distance metrics to compare with</t>
-  </si>
-  <si>
     <t>Completed?</t>
   </si>
   <si>
@@ -188,13 +179,35 @@
     <t>Support cross validation for the CBF model</t>
   </si>
   <si>
-    <t>Compare different algorithms e.g. KNNWithMeans, KNNWithZScore etc.</t>
-  </si>
-  <si>
-    <t>Perform a GridSearch to hypertune the algorithm parameters</t>
-  </si>
-  <si>
-    <t>Make the recommend user function predict the rating for its neighbour's items</t>
+    <t>Compare different algorithms e.g. SVD, SVD++ etc.</t>
+  </si>
+  <si>
+    <t>Switch to use SVD</t>
+  </si>
+  <si>
+    <t>Perform a GridSearch to hypertune the algorithm parameters for the final model</t>
+  </si>
+  <si>
+    <t>Fix any remaining issues with the recommender</t>
+  </si>
+  <si>
+    <t>Evaluate the recommenders using multiple datasets</t>
+  </si>
+  <si>
+    <t>Rename the existing user ratings dataset
+as the standard set</t>
+  </si>
+  <si>
+    <t>Add the new users dataset</t>
+  </si>
+  <si>
+    <t>Evaluate each recommender on the new users dataset</t>
+  </si>
+  <si>
+    <t>Create graphs comparing the performance on both datasets</t>
+  </si>
+  <si>
+    <t>Remove watching and dropped shows from both datasets</t>
   </si>
 </sst>
 </file>
@@ -335,7 +348,90 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -679,54 +775,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B176215D-3E25-465E-8734-F770A2BFE3F2}" name="Table3" displayName="Table3" ref="A1:C7" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B176215D-3E25-465E-8734-F770A2BFE3F2}" name="Table3" displayName="Table3" ref="A1:C7" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:C7" xr:uid="{B176215D-3E25-465E-8734-F770A2BFE3F2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DFDAABA4-5AB9-48CB-AD77-74292D9825B2}" name="Overall Task" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{C07F7294-7A13-4F13-AAC7-AC98E74B30A3}" name="Priority" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{FD6E8A6E-BBFA-480B-A476-D504B27D722A}" name="Data Finished" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{DFDAABA4-5AB9-48CB-AD77-74292D9825B2}" name="Overall Task" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{C07F7294-7A13-4F13-AAC7-AC98E74B30A3}" name="Priority" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{FD6E8A6E-BBFA-480B-A476-D504B27D722A}" name="Data Finished" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{32B3F3BC-3213-4C32-AA1A-ED29D5C27049}" name="Table4" displayName="Table4" ref="A1:D6" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{32B3F3BC-3213-4C32-AA1A-ED29D5C27049}" name="Table4" displayName="Table4" ref="A1:D6" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A1:D6" xr:uid="{32B3F3BC-3213-4C32-AA1A-ED29D5C27049}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8C6A5278-DB72-42E0-A0F9-AA634A2D59A4}" name="Sub-Task" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{6EB5F5B7-4985-43EC-A269-119ED4ED1161}" name="Priority" dataDxfId="13" dataCellStyle="Bad"/>
-    <tableColumn id="3" xr3:uid="{1ED58AB5-59A7-47BE-B508-A9EC0B64F4AD}" name="Finished?" dataDxfId="12" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{0EEA310E-C110-453D-BE5A-690D8D2AF76D}" name="Date Finished" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8C6A5278-DB72-42E0-A0F9-AA634A2D59A4}" name="Sub-Task" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{6EB5F5B7-4985-43EC-A269-119ED4ED1161}" name="Priority" dataDxfId="19" dataCellStyle="Bad"/>
+    <tableColumn id="3" xr3:uid="{1ED58AB5-59A7-47BE-B508-A9EC0B64F4AD}" name="Finished?" dataDxfId="18" dataCellStyle="Good"/>
+    <tableColumn id="4" xr3:uid="{0EEA310E-C110-453D-BE5A-690D8D2AF76D}" name="Date Finished" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:D14" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
-    <sortCondition descending="1" ref="D1:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:D13" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+    <sortCondition descending="1" ref="D1:D11"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DB039294-D058-4731-B655-F5AC2D298968}" name="Sub-Task" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{70DD6EBE-8696-483F-9161-21B8F4F67AED}" name="Priority" dataDxfId="7" dataCellStyle="Neutral"/>
-    <tableColumn id="3" xr3:uid="{EF59A110-B41A-4B19-8713-54C02158BE15}" name="Completed?" dataDxfId="6" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{0BDA4045-6557-4C5D-89AC-BE67E3FD7FA3}" name="Completion Date" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{DB039294-D058-4731-B655-F5AC2D298968}" name="Sub-Task" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{70DD6EBE-8696-483F-9161-21B8F4F67AED}" name="Priority" dataDxfId="13" dataCellStyle="Neutral"/>
+    <tableColumn id="3" xr3:uid="{EF59A110-B41A-4B19-8713-54C02158BE15}" name="Completed?" dataDxfId="12" dataCellStyle="Good"/>
+    <tableColumn id="4" xr3:uid="{0BDA4045-6557-4C5D-89AC-BE67E3FD7FA3}" name="Completion Date" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:D11" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4474FE88-BF57-400E-B557-D9F7792BD945}" name="Sub-Task" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{90D4ABA7-9778-4978-8446-83BD66FD4CC5}" name="Priority" dataDxfId="2" dataCellStyle="Bad"/>
-    <tableColumn id="3" xr3:uid="{FA391E9E-6976-444D-9478-02E2D7D60B53}" name="Finished?" dataDxfId="1" dataCellStyle="Bad"/>
-    <tableColumn id="4" xr3:uid="{232FD672-1458-4341-94CD-2FC92FFB01F5}" name="Date Finished" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4474FE88-BF57-400E-B557-D9F7792BD945}" name="Sub-Task" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{90D4ABA7-9778-4978-8446-83BD66FD4CC5}" name="Priority" dataDxfId="8" dataCellStyle="Bad"/>
+    <tableColumn id="3" xr3:uid="{FA391E9E-6976-444D-9478-02E2D7D60B53}" name="Finished?" dataDxfId="7" dataCellStyle="Bad"/>
+    <tableColumn id="4" xr3:uid="{232FD672-1458-4341-94CD-2FC92FFB01F5}" name="Date Finished" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5987DAE0-31B3-417C-A459-2199DA8AF84A}" name="Table5" displayName="Table5" ref="A1:D6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
+  <autoFilter ref="A1:D6" xr:uid="{5987DAE0-31B3-417C-A459-2199DA8AF84A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{006AF1B9-7134-4425-8E3D-7EE31C14165A}" name="Sub-Task" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FAAC91C6-B4C3-4D08-9E2E-359AA41B8DDF}" name="Priority" dataDxfId="3" dataCellStyle="Bad"/>
+    <tableColumn id="3" xr3:uid="{91A0D836-1D9F-444C-BCEB-A007F894E443}" name="Finished?" dataDxfId="2" dataCellStyle="Bad"/>
+    <tableColumn id="4" xr3:uid="{D504C7DC-E345-40D0-B6DB-9901B58B2D63}" name="Date Finished" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1032,7 +1141,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,21 +1153,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="9">
         <v>45222</v>
@@ -1066,7 +1175,7 @@
     </row>
     <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
@@ -1075,7 +1184,7 @@
     </row>
     <row r="4" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -1084,16 +1193,16 @@
     </row>
     <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>9</v>
@@ -1102,10 +1211,10 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="C7" s="11"/>
     </row>
@@ -1135,7 +1244,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1228,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A34CCC9-24A7-4EB0-B684-B237532D90B3}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,21 +1353,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>9</v>
@@ -1272,7 +1381,7 @@
     </row>
     <row r="3" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>9</v>
@@ -1286,10 +1395,10 @@
     </row>
     <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>4</v>
@@ -1300,7 +1409,7 @@
     </row>
     <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -1314,7 +1423,7 @@
     </row>
     <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>9</v>
@@ -1328,7 +1437,7 @@
     </row>
     <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>9</v>
@@ -1382,53 +1491,41 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="9"/>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1442,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB981B5-0229-4450-9452-8FF3F7ACB3A8}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1553,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1470,7 +1567,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -1484,7 +1581,7 @@
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
@@ -1498,31 +1595,31 @@
     </row>
     <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
@@ -1536,7 +1633,7 @@
     </row>
     <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -1548,51 +1645,53 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -1606,33 +1705,99 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8604CB-AB2D-4350-BE93-5DBC8A579841}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1651,7 +1816,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Documents\GitHub\animeRecommendationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C480D75-0620-4994-B768-AD2CB17F594A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02485F1F-C3AD-4EB9-8DC8-D77F1A6E0F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
   <si>
     <t>Date Finished</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Remove watching and dropped shows from both datasets</t>
+  </si>
+  <si>
+    <t>Remove new users from the standard dataset</t>
   </si>
 </sst>
 </file>
@@ -829,13 +832,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5987DAE0-31B3-417C-A459-2199DA8AF84A}" name="Table5" displayName="Table5" ref="A1:D6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
-  <autoFilter ref="A1:D6" xr:uid="{5987DAE0-31B3-417C-A459-2199DA8AF84A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5987DAE0-31B3-417C-A459-2199DA8AF84A}" name="Table5" displayName="Table5" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D7" xr:uid="{5987DAE0-31B3-417C-A459-2199DA8AF84A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{006AF1B9-7134-4425-8E3D-7EE31C14165A}" name="Sub-Task" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{FAAC91C6-B4C3-4D08-9E2E-359AA41B8DDF}" name="Priority" dataDxfId="3" dataCellStyle="Bad"/>
-    <tableColumn id="3" xr3:uid="{91A0D836-1D9F-444C-BCEB-A007F894E443}" name="Finished?" dataDxfId="2" dataCellStyle="Bad"/>
-    <tableColumn id="4" xr3:uid="{D504C7DC-E345-40D0-B6DB-9901B58B2D63}" name="Date Finished" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{006AF1B9-7134-4425-8E3D-7EE31C14165A}" name="Sub-Task" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FAAC91C6-B4C3-4D08-9E2E-359AA41B8DDF}" name="Priority" dataDxfId="2" dataCellStyle="Bad"/>
+    <tableColumn id="3" xr3:uid="{91A0D836-1D9F-444C-BCEB-A007F894E443}" name="Finished?" dataDxfId="1" dataCellStyle="Bad"/>
+    <tableColumn id="4" xr3:uid="{D504C7DC-E345-40D0-B6DB-9901B58B2D63}" name="Date Finished" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1705,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8604CB-AB2D-4350-BE93-5DBC8A579841}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,8 +1776,8 @@
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>14</v>
@@ -1792,6 +1795,18 @@
         <v>14</v>
       </c>
       <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Documents\GitHub\animeRecommendationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02485F1F-C3AD-4EB9-8DC8-D77F1A6E0F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E86BEC5-EBEB-408C-B89C-EF918DC3C98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -329,7 +329,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -344,6 +344,7 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1143,18 +1144,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564A22F4-1C3D-4A06-A6DE-506EEA3469F5}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1186,7 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1194,7 +1195,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1203,7 +1204,7 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>47</v>
       </c>
@@ -1212,7 +1213,7 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1234,18 +1235,18 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1346,15 +1347,15 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -1518,7 +1519,7 @@
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
@@ -1543,18 +1544,18 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -1596,19 +1597,21 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9">
+        <v>45339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
@@ -1620,7 +1623,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
@@ -1662,31 +1665,35 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
@@ -1710,19 +1717,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8604CB-AB2D-4350-BE93-5DBC8A579841}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
@@ -1748,31 +1755,35 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>45339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -1784,29 +1795,33 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>45339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11"/>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>45339</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1824,12 +1839,12 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>

--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Documents\GitHub\animeRecommendationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E86BEC5-EBEB-408C-B89C-EF918DC3C98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66346B9E-541F-45A7-B68B-CB916D12DFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
   <si>
     <t>Date Finished</t>
   </si>
@@ -211,22 +211,40 @@
   </si>
   <si>
     <t>Remove new users from the standard dataset</t>
+  </si>
+  <si>
+    <t>Allow the number of recommendations to be chosen</t>
+  </si>
+  <si>
+    <t>Allow a specific user to 
+be chosen</t>
+  </si>
+  <si>
+    <t>Allow a random user to 
+be chosen</t>
+  </si>
+  <si>
+    <t>Show the recommendations for a specific user</t>
+  </si>
+  <si>
+    <t>Allow the recommender to be chosen</t>
+  </si>
+  <si>
+    <t>Add a second page showing the evaluation results</t>
+  </si>
+  <si>
+    <t>Allow selectable evaluation options i.e. All Recommender, CBF Recommender etc.</t>
+  </si>
+  <si>
+    <t>Remove the distance column from the recommendations table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -325,26 +343,25 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -352,7 +369,90 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -779,76 +879,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B176215D-3E25-465E-8734-F770A2BFE3F2}" name="Table3" displayName="Table3" ref="A1:C7" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B176215D-3E25-465E-8734-F770A2BFE3F2}" name="Table3" displayName="Table3" ref="A1:C7" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:C7" xr:uid="{B176215D-3E25-465E-8734-F770A2BFE3F2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DFDAABA4-5AB9-48CB-AD77-74292D9825B2}" name="Overall Task" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{C07F7294-7A13-4F13-AAC7-AC98E74B30A3}" name="Priority" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{FD6E8A6E-BBFA-480B-A476-D504B27D722A}" name="Data Finished" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{DFDAABA4-5AB9-48CB-AD77-74292D9825B2}" name="Overall Task" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{C07F7294-7A13-4F13-AAC7-AC98E74B30A3}" name="Priority" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{FD6E8A6E-BBFA-480B-A476-D504B27D722A}" name="Data Finished" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{32B3F3BC-3213-4C32-AA1A-ED29D5C27049}" name="Table4" displayName="Table4" ref="A1:D6" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{32B3F3BC-3213-4C32-AA1A-ED29D5C27049}" name="Table4" displayName="Table4" ref="A1:D6" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:D6" xr:uid="{32B3F3BC-3213-4C32-AA1A-ED29D5C27049}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8C6A5278-DB72-42E0-A0F9-AA634A2D59A4}" name="Sub-Task" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{6EB5F5B7-4985-43EC-A269-119ED4ED1161}" name="Priority" dataDxfId="19" dataCellStyle="Bad"/>
-    <tableColumn id="3" xr3:uid="{1ED58AB5-59A7-47BE-B508-A9EC0B64F4AD}" name="Finished?" dataDxfId="18" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{0EEA310E-C110-453D-BE5A-690D8D2AF76D}" name="Date Finished" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{8C6A5278-DB72-42E0-A0F9-AA634A2D59A4}" name="Sub-Task" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{6EB5F5B7-4985-43EC-A269-119ED4ED1161}" name="Priority" dataDxfId="25" dataCellStyle="Bad"/>
+    <tableColumn id="3" xr3:uid="{1ED58AB5-59A7-47BE-B508-A9EC0B64F4AD}" name="Finished?" dataDxfId="24" dataCellStyle="Good"/>
+    <tableColumn id="4" xr3:uid="{0EEA310E-C110-453D-BE5A-690D8D2AF76D}" name="Date Finished" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:D13" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
     <sortCondition descending="1" ref="D1:D11"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DB039294-D058-4731-B655-F5AC2D298968}" name="Sub-Task" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{70DD6EBE-8696-483F-9161-21B8F4F67AED}" name="Priority" dataDxfId="13" dataCellStyle="Neutral"/>
-    <tableColumn id="3" xr3:uid="{EF59A110-B41A-4B19-8713-54C02158BE15}" name="Completed?" dataDxfId="12" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{0BDA4045-6557-4C5D-89AC-BE67E3FD7FA3}" name="Completion Date" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{DB039294-D058-4731-B655-F5AC2D298968}" name="Sub-Task" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{70DD6EBE-8696-483F-9161-21B8F4F67AED}" name="Priority" dataDxfId="19" dataCellStyle="Neutral"/>
+    <tableColumn id="3" xr3:uid="{EF59A110-B41A-4B19-8713-54C02158BE15}" name="Completed?" dataDxfId="18" dataCellStyle="Good"/>
+    <tableColumn id="4" xr3:uid="{0BDA4045-6557-4C5D-89AC-BE67E3FD7FA3}" name="Completion Date" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:D11" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4474FE88-BF57-400E-B557-D9F7792BD945}" name="Sub-Task" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{90D4ABA7-9778-4978-8446-83BD66FD4CC5}" name="Priority" dataDxfId="8" dataCellStyle="Bad"/>
-    <tableColumn id="3" xr3:uid="{FA391E9E-6976-444D-9478-02E2D7D60B53}" name="Finished?" dataDxfId="7" dataCellStyle="Bad"/>
-    <tableColumn id="4" xr3:uid="{232FD672-1458-4341-94CD-2FC92FFB01F5}" name="Date Finished" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{4474FE88-BF57-400E-B557-D9F7792BD945}" name="Sub-Task" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{90D4ABA7-9778-4978-8446-83BD66FD4CC5}" name="Priority" dataDxfId="14" dataCellStyle="Bad"/>
+    <tableColumn id="3" xr3:uid="{FA391E9E-6976-444D-9478-02E2D7D60B53}" name="Finished?" dataDxfId="13" dataCellStyle="Bad"/>
+    <tableColumn id="4" xr3:uid="{232FD672-1458-4341-94CD-2FC92FFB01F5}" name="Date Finished" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5987DAE0-31B3-417C-A459-2199DA8AF84A}" name="Table5" displayName="Table5" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5987DAE0-31B3-417C-A459-2199DA8AF84A}" name="Table5" displayName="Table5" ref="A1:D7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D7" xr:uid="{5987DAE0-31B3-417C-A459-2199DA8AF84A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{006AF1B9-7134-4425-8E3D-7EE31C14165A}" name="Sub-Task" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{FAAC91C6-B4C3-4D08-9E2E-359AA41B8DDF}" name="Priority" dataDxfId="2" dataCellStyle="Bad"/>
-    <tableColumn id="3" xr3:uid="{91A0D836-1D9F-444C-BCEB-A007F894E443}" name="Finished?" dataDxfId="1" dataCellStyle="Bad"/>
-    <tableColumn id="4" xr3:uid="{D504C7DC-E345-40D0-B6DB-9901B58B2D63}" name="Date Finished" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{006AF1B9-7134-4425-8E3D-7EE31C14165A}" name="Sub-Task" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FAAC91C6-B4C3-4D08-9E2E-359AA41B8DDF}" name="Priority" dataDxfId="8" dataCellStyle="Bad"/>
+    <tableColumn id="3" xr3:uid="{91A0D836-1D9F-444C-BCEB-A007F894E443}" name="Finished?" dataDxfId="7" dataCellStyle="Bad"/>
+    <tableColumn id="4" xr3:uid="{D504C7DC-E345-40D0-B6DB-9901B58B2D63}" name="Date Finished" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{04659E97-F0C7-416A-980A-020311B46609}" name="Table6" displayName="Table6" ref="A1:D9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
+  <autoFilter ref="A1:D9" xr:uid="{04659E97-F0C7-416A-980A-020311B46609}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{26605586-3F46-4C27-B53E-0B2CFB20FB73}" name="Sub-Task" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A11E8E77-60BF-4C5D-BC84-EBF734E41015}" name="Priority" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{276FEEC7-4300-4EBF-86F1-C7B528D2A6C8}" name="Finished?" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BB8D4FF8-EDD1-4E2F-A53F-A255187C8C12}" name="Date Finished" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -886,7 +999,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -992,7 +1105,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1134,7 +1247,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1144,83 +1257,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564A22F4-1C3D-4A06-A6DE-506EEA3469F5}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>45222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1238,95 +1351,95 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8">
         <v>45199</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
         <v>45199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
         <v>45199</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
         <v>45199</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
         <v>45222</v>
       </c>
     </row>
@@ -1347,189 +1460,189 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8">
         <v>45337</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
         <v>45337</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
         <v>45337</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
         <v>45306</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
         <v>45304</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
         <v>45304</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8">
         <v>45293</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8">
         <v>45243</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8">
         <v>45243</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1544,166 +1657,166 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8">
         <v>45313</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
         <v>45344</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
         <v>45339</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
         <v>45319</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
         <v>45320</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8">
         <v>45321</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8">
         <v>45332</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11">
         <v>45332</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1718,108 +1831,108 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
         <v>45339</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
         <v>45341</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
         <v>45339</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
         <v>45339</v>
       </c>
     </row>
@@ -1833,32 +1946,145 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B61A5E7-19A9-4FD2-833D-41A2C1AAEB17}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Documents\GitHub\animeRecommendationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66346B9E-541F-45A7-B68B-CB916D12DFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C175C98-8B63-4878-8D07-3391B29FF8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
   <si>
     <t>Date Finished</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Remove the distance column from the recommendations table</t>
+  </si>
+  <si>
+    <t>Fix Collaborative Recommenders so they show their recommendations results</t>
   </si>
 </sst>
 </file>
@@ -946,13 +949,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{04659E97-F0C7-416A-980A-020311B46609}" name="Table6" displayName="Table6" ref="A1:D9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
-  <autoFilter ref="A1:D9" xr:uid="{04659E97-F0C7-416A-980A-020311B46609}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{04659E97-F0C7-416A-980A-020311B46609}" name="Table6" displayName="Table6" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D10" xr:uid="{04659E97-F0C7-416A-980A-020311B46609}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{26605586-3F46-4C27-B53E-0B2CFB20FB73}" name="Sub-Task" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A11E8E77-60BF-4C5D-BC84-EBF734E41015}" name="Priority" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{276FEEC7-4300-4EBF-86F1-C7B528D2A6C8}" name="Finished?" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{BB8D4FF8-EDD1-4E2F-A53F-A255187C8C12}" name="Date Finished" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{26605586-3F46-4C27-B53E-0B2CFB20FB73}" name="Sub-Task" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A11E8E77-60BF-4C5D-BC84-EBF734E41015}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{276FEEC7-4300-4EBF-86F1-C7B528D2A6C8}" name="Finished?" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{BB8D4FF8-EDD1-4E2F-A53F-A255187C8C12}" name="Date Finished" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1946,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B61A5E7-19A9-4FD2-833D-41A2C1AAEB17}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,21 +2059,21 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -2079,6 +2082,18 @@
         <v>14</v>
       </c>
       <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Documents\GitHub\animeRecommendationSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C175C98-8B63-4878-8D07-3391B29FF8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1210926B-9433-4F7B-B5D7-89D4AB2ED7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B032F3D-D160-4714-92A2-1D8BD243C1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
     <sheet name="Data Collection" sheetId="1" r:id="rId2"/>
     <sheet name="Content-Based Filtering" sheetId="2" r:id="rId3"/>
     <sheet name="Collaborative Filtering" sheetId="3" r:id="rId4"/>
-    <sheet name="Multiple Datasets Evaluation" sheetId="6" r:id="rId5"/>
-    <sheet name="Web Interface" sheetId="5" r:id="rId6"/>
+    <sheet name="Hybrid System" sheetId="7" r:id="rId5"/>
+    <sheet name="Multiple Datasets Evaluation" sheetId="6" r:id="rId6"/>
+    <sheet name="Web Interface" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
   <si>
     <t>Date Finished</t>
   </si>
@@ -145,9 +146,6 @@
     <t>Update the test recommendations function to work with the new evaluation method</t>
   </si>
   <si>
-    <t>Improve the vectorisation of  anime</t>
-  </si>
-  <si>
     <t>Completed?</t>
   </si>
   <si>
@@ -170,15 +168,9 @@
     <t>Create a graph that looks like the CBF evaluation graph</t>
   </si>
   <si>
-    <t>Normalise the user ratings per user</t>
-  </si>
-  <si>
     <t>Remove shows that have not been finished, or have been dropped.</t>
   </si>
   <si>
-    <t>Support cross validation for the CBF model</t>
-  </si>
-  <si>
     <t>Compare different algorithms e.g. SVD, SVD++ etc.</t>
   </si>
   <si>
@@ -188,14 +180,7 @@
     <t>Perform a GridSearch to hypertune the algorithm parameters for the final model</t>
   </si>
   <si>
-    <t>Fix any remaining issues with the recommender</t>
-  </si>
-  <si>
     <t>Evaluate the recommenders using multiple datasets</t>
-  </si>
-  <si>
-    <t>Rename the existing user ratings dataset
-as the standard set</t>
   </si>
   <si>
     <t>Add the new users dataset</t>
@@ -233,13 +218,13 @@
     <t>Add a second page showing the evaluation results</t>
   </si>
   <si>
-    <t>Allow selectable evaluation options i.e. All Recommender, CBF Recommender etc.</t>
-  </si>
-  <si>
     <t>Remove the distance column from the recommendations table</t>
   </si>
   <si>
     <t>Fix Collaborative Recommenders so they show their recommendations results</t>
+  </si>
+  <si>
+    <t>Fix any remaining bugs</t>
   </si>
 </sst>
 </file>
@@ -907,10 +892,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:D13" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
-    <sortCondition descending="1" ref="D1:D11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:D11" xr:uid="{55C6B186-3084-4BE6-A79A-AA3CB9B18C52}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
+    <sortCondition descending="1" ref="D1:D10"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DB039294-D058-4731-B655-F5AC2D298968}" name="Sub-Task" dataDxfId="20"/>
@@ -923,8 +908,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:D11" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}" name="Table2" displayName="Table2" ref="A1:D10" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:D10" xr:uid="{759D4793-D161-4BD4-81FA-FF592A94C73B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4474FE88-BF57-400E-B557-D9F7792BD945}" name="Sub-Task" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{90D4ABA7-9778-4978-8446-83BD66FD4CC5}" name="Priority" dataDxfId="14" dataCellStyle="Bad"/>
@@ -936,8 +921,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5987DAE0-31B3-417C-A459-2199DA8AF84A}" name="Table5" displayName="Table5" ref="A1:D7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D7" xr:uid="{5987DAE0-31B3-417C-A459-2199DA8AF84A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5987DAE0-31B3-417C-A459-2199DA8AF84A}" name="Table5" displayName="Table5" ref="A1:D6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D6" xr:uid="{5987DAE0-31B3-417C-A459-2199DA8AF84A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{006AF1B9-7134-4425-8E3D-7EE31C14165A}" name="Sub-Task" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{FAAC91C6-B4C3-4D08-9E2E-359AA41B8DDF}" name="Priority" dataDxfId="8" dataCellStyle="Bad"/>
@@ -949,8 +934,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{04659E97-F0C7-416A-980A-020311B46609}" name="Table6" displayName="Table6" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D10" xr:uid="{04659E97-F0C7-416A-980A-020311B46609}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{04659E97-F0C7-416A-980A-020311B46609}" name="Table6" displayName="Table6" ref="A1:D9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D9" xr:uid="{04659E97-F0C7-416A-980A-020311B46609}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{26605586-3F46-4C27-B53E-0B2CFB20FB73}" name="Sub-Task" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{A11E8E77-60BF-4C5D-BC84-EBF734E41015}" name="Priority" dataDxfId="2"/>
@@ -1260,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564A22F4-1C3D-4A06-A6DE-506EEA3469F5}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1285,9 @@
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="8">
+        <v>45366</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1322,12 +1309,14 @@
     </row>
     <row r="6" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="8">
+        <v>45366</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1336,7 +1325,9 @@
       <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="8">
+        <v>45367</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1351,7 +1342,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A34CCC9-24A7-4EB0-B684-B237532D90B3}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,10 +1470,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -1611,41 +1602,19 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8"/>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
+        <v>45366</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1657,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB981B5-0229-4450-9452-8FF3F7ACB3A8}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1656,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -1701,7 +1670,7 @@
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -1715,7 +1684,7 @@
     </row>
     <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -1729,61 +1698,63 @@
     </row>
     <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>45319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8">
-        <v>45320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="8">
-        <v>45321</v>
+        <v>45332</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1791,35 +1762,21 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="11">
         <v>45332</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="11">
-        <v>45332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1830,11 +1787,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8604CB-AB2D-4350-BE93-5DBC8A579841}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A000F2-7B36-49F4-A447-AD557E7FBC45}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8604CB-AB2D-4350-BE93-5DBC8A579841}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,21 +1848,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8">
+        <v>45339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -1882,38 +1873,40 @@
         <v>4</v>
       </c>
       <c r="D3" s="8">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
         <v>45339</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8">
-        <v>45341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -1922,20 +1915,6 @@
         <v>4</v>
       </c>
       <c r="D6" s="8">
-        <v>45339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8">
         <v>45339</v>
       </c>
     </row>
@@ -1947,12 +1926,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B61A5E7-19A9-4FD2-833D-41A2C1AAEB17}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,7 +1958,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -1993,7 +1972,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -2005,7 +1984,7 @@
     </row>
     <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>9</v>
@@ -2019,7 +1998,7 @@
     </row>
     <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -2033,7 +2012,7 @@
     </row>
     <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>9</v>
@@ -2047,7 +2026,7 @@
     </row>
     <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -2061,39 +2040,31 @@
     </row>
     <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8">
+        <v>45367</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="8"/>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8">
+        <v>45367</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
